--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>TB CS - HIV infection</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
+    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artStarted</t>
@@ -1360,7 +1360,7 @@
     <t>Biological sex or sex assigned at birth (male, female, unknown).</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/rrt---gen---sex-vs</t>
+    <t>http://example.org/ValueSet/RRTGENSexVS</t>
   </si>
   <si>
     <t>TBCaseSurveillance.dateOfBirthIsEstimated</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>TB CS - HIV infection</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
+    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artStarted</t>
@@ -1360,7 +1360,7 @@
     <t>Biological sex or sex assigned at birth (male, female, unknown).</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/RRTGENSexVS</t>
+    <t>http://example.org/ValueSet/rrt---gen---sex-vs</t>
   </si>
   <si>
     <t>TBCaseSurveillance.dateOfBirthIsEstimated</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>TB CS - HIV infection</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
+    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artStarted</t>
@@ -1266,7 +1266,7 @@
     <t>TB CS - Treatment outcome</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---treatment-outcome-vs</t>
+    <t>http://example.org/ValueSet/TBCSTreatmentOutcomeVS</t>
   </si>
   <si>
     <t>Outcome.reasonForDenotification</t>
@@ -1275,7 +1275,7 @@
     <t>TB CS - Outcome - Reason for case denotification</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---denotification-reasons-vs</t>
+    <t>http://example.org/ValueSet/TBCSDenotificationReasonsVS</t>
   </si>
   <si>
     <t>Outcome.provideDuplicateSRecordNumber</t>
@@ -1360,7 +1360,7 @@
     <t>Biological sex or sex assigned at birth (male, female, unknown).</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/rrt---gen---sex-vs</t>
+    <t>http://example.org/ValueSet/RRTGENSexVS</t>
   </si>
   <si>
     <t>TBCaseSurveillance.dateOfBirthIsEstimated</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---treatment-history-vs</t>
+    <t>http://example.org/ValueSet/TBCSTreatmentHistoryVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.hivInfection</t>
@@ -338,7 +338,7 @@
     <t>TB CS - Confirmation method</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---confirmation-method-vs</t>
+    <t>http://example.org/ValueSet/TBCSConfirmationMethodVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.currentAddressOnMap</t>
@@ -353,7 +353,7 @@
     <t>TB CS - Site of disease</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---site-of-disease-vs</t>
+    <t>http://example.org/ValueSet/TBCSSiteOfDiseaseVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artPatientId</t>
@@ -423,7 +423,7 @@
     <t>TB-LAB - Initial DST (solid media) - Inh (CC)</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---dst-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABDSTResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.solidInitialRifampicinRif</t>
@@ -516,7 +516,7 @@
     <t>TB-LAB - Xpert MTB/RIF result - MTB</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---mtb-test-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABMTBTestResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.xpertMtbRifRif</t>
@@ -525,7 +525,7 @@
     <t>TB-LAB - Xpert MTB/RIF result - Rif</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/susceptible-resistant-indeterminate-vs</t>
+    <t>http://example.org/ValueSet/SusceptibleResistantIndeterminateVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.solidCultureSpecimenNumber</t>
@@ -540,7 +540,7 @@
     <t>TB-LAB - Solid culture test result</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---final-culture-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABFinalCultureResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.smearSpecimenNumber</t>
@@ -927,7 +927,7 @@
     <t>TB-LAB - Microscopy result</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---smear-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABSmearResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.dateOfCultureInoculationLiquidMedia</t>
@@ -942,7 +942,7 @@
     <t>TB-LAB - SL-LPA specimen type</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---lpa-specimen-vs</t>
+    <t>http://example.org/ValueSet/TBLABLPASpecimenVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.dateOfCultureInoculationSolidMedia</t>
@@ -957,7 +957,7 @@
     <t>TB-LAB - Sample quality</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---sample-quality-vs</t>
+    <t>http://example.org/ValueSet/TBLABSampleQualityVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.liquidSubsequentRifampicinRif</t>
@@ -984,7 +984,7 @@
     <t>TB-LAB - Sample status</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---sample-status-vs</t>
+    <t>http://example.org/ValueSet/TBLABSampleStatusVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.initialDstLmSpecimenNumber</t>
@@ -1455,7 +1455,7 @@
     <t>TB CS - Treatment regimen</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---treatment-category-vs</t>
+    <t>http://example.org/ValueSet/TBCSTreatmentCategoryVS</t>
   </si>
   <si>
     <t>TBTreatment.levofloxacinLfx</t>
@@ -1650,7 +1650,7 @@
     <t>TB CS - Manually assigned resistance classification</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---resistance-classification-vs</t>
+    <t>http://example.org/ValueSet/TBCSResistanceClassificationVS</t>
   </si>
   <si>
     <t>TBTreatment.treatmentInitiationDelayDays</t>
@@ -2838,7 +2838,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="63.0703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="62.22265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
